--- a/biology/Zoologie/Cicurina_pagosa/Cicurina_pagosa.xlsx
+++ b/biology/Zoologie/Cicurina_pagosa/Cicurina_pagosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cicurina pagosa est une espèce d'araignées aranéomorphes de la famille des Cicurinidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cicurina pagosa est une espèce d'araignées aranéomorphes de la famille des Cicurinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis[1],[2]. Elle se rencontre vers Pagosa Springs et Idaho Springs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Colorado aux États-Unis,. Elle se rencontre vers Pagosa Springs et Idaho Springs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 8,30 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 8,30 mm.
 Le mâle décrit par Chamberlin et Ivie en 1940 sous le nom Cicurina rubra mesure 6,12 mm.
 </t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Chamberlin et Ivie en 1940.
-Cicurina rubra[3] a été placée en synonymie par Roth et Brown en 1986[4].
+Cicurina rubra a été placée en synonymie par Roth et Brown en 1986.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Pagosa Springs.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Ivie, 1940 : « Agelenid spiders of the genus Cicurina. » Bulletin of the University of Utah, Biological Series, vol. 30, no 18, p. 1-108.</t>
         </is>
